--- a/results/Murata_backtest_results.xlsx
+++ b/results/Murata_backtest_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\JP stock backtest project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617512D8-BCFF-4609-9546-4BDD36753B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B70ACB-1C0B-472C-B439-24431224EAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="selected funds raw data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'selected funds raw data'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'selected funds raw data'!$A$1:$H$704</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -229,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,6 +252,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2813,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,10 +4745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD734530-4EF9-4950-9676-0A80DDEF240D}">
-  <dimension ref="A1:H704"/>
+  <dimension ref="A1:K704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E709" sqref="E709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4760,7 +4761,10 @@
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -5176,7 +5180,7 @@
         <v>25688</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>462</v>
       </c>
@@ -5202,7 +5206,7 @@
         <v>25688</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>443</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>444</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>445</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>446</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>447</v>
       </c>
@@ -5358,7 +5362,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>448</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>592</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>593</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>594</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>595</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>596</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>597</v>
       </c>
@@ -5539,8 +5543,9 @@
       <c r="H30" s="5">
         <v>29871</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>598</v>
       </c>
@@ -5566,7 +5571,7 @@
         <v>29871</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>76</v>
       </c>
@@ -6008,7 +6013,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>432</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>433</v>
       </c>
@@ -6060,7 +6065,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>434</v>
       </c>
@@ -6086,7 +6091,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>435</v>
       </c>
@@ -6112,7 +6117,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>436</v>
       </c>
@@ -6138,7 +6143,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>580</v>
       </c>
@@ -6164,7 +6169,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>581</v>
       </c>
@@ -6190,7 +6195,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>582</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>583</v>
       </c>
@@ -6242,7 +6247,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>584</v>
       </c>
@@ -6268,7 +6273,7 @@
         <v>30963</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>585</v>
       </c>
@@ -6293,8 +6298,9 @@
       <c r="H59" s="5">
         <v>30963</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>3</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -6346,7 +6352,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>5</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>6</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>7</v>
       </c>
@@ -6840,7 +6846,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>290</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>291</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>413</v>
       </c>
@@ -6918,7 +6924,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>414</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>415</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>416</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>417</v>
       </c>
@@ -7022,7 +7028,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>418</v>
       </c>
@@ -7048,7 +7054,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>563</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>564</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>565</v>
       </c>
@@ -7126,7 +7132,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>566</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>567</v>
       </c>
@@ -7177,8 +7183,9 @@
       <c r="H93" s="5">
         <v>31259</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>568</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -7230,7 +7237,7 @@
         <v>32463</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -8504,7 +8511,7 @@
         <v>32699</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>549</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>32699</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>550</v>
       </c>
@@ -8556,7 +8563,7 @@
         <v>32699</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>551</v>
       </c>
@@ -8582,7 +8589,7 @@
         <v>32699</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>552</v>
       </c>
@@ -8608,7 +8615,7 @@
         <v>32699</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>553</v>
       </c>
@@ -8634,7 +8641,7 @@
         <v>32699</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>554</v>
       </c>
@@ -8659,8 +8666,9 @@
       <c r="H150" s="5">
         <v>32699</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K150" s="10"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>555</v>
       </c>
@@ -8686,7 +8694,7 @@
         <v>32699</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>14</v>
       </c>
@@ -8712,7 +8720,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>455</v>
       </c>
@@ -8738,7 +8746,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>456</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>457</v>
       </c>
@@ -8790,7 +8798,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>458</v>
       </c>
@@ -8816,7 +8824,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>459</v>
       </c>
@@ -8842,7 +8850,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>460</v>
       </c>
@@ -8868,7 +8876,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>605</v>
       </c>
@@ -8894,7 +8902,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>606</v>
       </c>
@@ -8920,7 +8928,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>607</v>
       </c>
@@ -8946,7 +8954,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>608</v>
       </c>
@@ -8972,7 +8980,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>609</v>
       </c>
@@ -8998,7 +9006,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>610</v>
       </c>
@@ -9023,8 +9031,9 @@
       <c r="H164" s="5">
         <v>33147</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K164" s="10"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>611</v>
       </c>
@@ -9050,7 +9059,7 @@
         <v>33147</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>70</v>
       </c>
@@ -9076,7 +9085,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>71</v>
       </c>
@@ -9102,7 +9111,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>72</v>
       </c>
@@ -9128,7 +9137,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>73</v>
       </c>
@@ -9154,7 +9163,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>74</v>
       </c>
@@ -9180,7 +9189,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>172</v>
       </c>
@@ -9206,7 +9215,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>173</v>
       </c>
@@ -9232,7 +9241,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>174</v>
       </c>
@@ -9258,7 +9267,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>175</v>
       </c>
@@ -9284,7 +9293,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>176</v>
       </c>
@@ -9310,7 +9319,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>177</v>
       </c>
@@ -9752,7 +9761,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>573</v>
       </c>
@@ -9777,8 +9786,9 @@
       <c r="H193" s="5">
         <v>34285</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K193" s="10"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>574</v>
       </c>
@@ -9804,7 +9814,7 @@
         <v>34285</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>75</v>
       </c>
@@ -9830,7 +9840,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>178</v>
       </c>
@@ -9856,7 +9866,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>179</v>
       </c>
@@ -9882,7 +9892,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>180</v>
       </c>
@@ -9908,7 +9918,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>181</v>
       </c>
@@ -9934,7 +9944,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>182</v>
       </c>
@@ -9960,7 +9970,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>183</v>
       </c>
@@ -9986,7 +9996,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>298</v>
       </c>
@@ -10012,7 +10022,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>299</v>
       </c>
@@ -10038,7 +10048,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>300</v>
       </c>
@@ -10064,7 +10074,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>301</v>
       </c>
@@ -10090,7 +10100,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>302</v>
       </c>
@@ -10116,7 +10126,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>303</v>
       </c>
@@ -10142,7 +10152,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>425</v>
       </c>
@@ -11000,7 +11010,7 @@
         <v>34876</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>561</v>
       </c>
@@ -11025,8 +11035,9 @@
       <c r="H241" s="5">
         <v>34876</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K241" s="10"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>562</v>
       </c>
@@ -11052,7 +11063,7 @@
         <v>34876</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>0</v>
       </c>
@@ -11078,7 +11089,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>1</v>
       </c>
@@ -11104,7 +11115,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>2</v>
       </c>
@@ -11130,7 +11141,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>62</v>
       </c>
@@ -11156,7 +11167,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>63</v>
       </c>
@@ -11182,7 +11193,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>160</v>
       </c>
@@ -11208,7 +11219,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>161</v>
       </c>
@@ -11234,7 +11245,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>162</v>
       </c>
@@ -11260,7 +11271,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>163</v>
       </c>
@@ -11286,7 +11297,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>164</v>
       </c>
@@ -11312,7 +11323,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>165</v>
       </c>
@@ -11338,7 +11349,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>280</v>
       </c>
@@ -11364,7 +11375,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>281</v>
       </c>
@@ -11390,7 +11401,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>282</v>
       </c>
@@ -12248,7 +12259,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>482</v>
       </c>
@@ -12274,7 +12285,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>628</v>
       </c>
@@ -12300,7 +12311,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>629</v>
       </c>
@@ -12326,7 +12337,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>630</v>
       </c>
@@ -12351,8 +12362,9 @@
       <c r="H292" s="5">
         <v>36292</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K292" s="10"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>15</v>
       </c>
@@ -12378,7 +12390,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>16</v>
       </c>
@@ -12404,7 +12416,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>17</v>
       </c>
@@ -12430,7 +12442,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>18</v>
       </c>
@@ -12456,7 +12468,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>19</v>
       </c>
@@ -12482,7 +12494,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>94</v>
       </c>
@@ -12508,7 +12520,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>95</v>
       </c>
@@ -12534,7 +12546,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>96</v>
       </c>
@@ -12560,7 +12572,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>97</v>
       </c>
@@ -12586,7 +12598,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>98</v>
       </c>
@@ -12612,7 +12624,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>99</v>
       </c>
@@ -12638,7 +12650,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>212</v>
       </c>
@@ -13496,7 +13508,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>471</v>
       </c>
@@ -13522,7 +13534,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>472</v>
       </c>
@@ -13548,7 +13560,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>473</v>
       </c>
@@ -13574,7 +13586,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>617</v>
       </c>
@@ -13600,7 +13612,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>618</v>
       </c>
@@ -13626,7 +13638,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>619</v>
       </c>
@@ -13652,7 +13664,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>620</v>
       </c>
@@ -13678,7 +13690,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>621</v>
       </c>
@@ -13704,7 +13716,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>622</v>
       </c>
@@ -13729,8 +13741,9 @@
       <c r="H345" s="5">
         <v>37651</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K345" s="10"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>623</v>
       </c>
@@ -13756,7 +13769,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>21</v>
       </c>
@@ -13782,7 +13795,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>22</v>
       </c>
@@ -13808,7 +13821,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>23</v>
       </c>
@@ -13834,7 +13847,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>100</v>
       </c>
@@ -13860,7 +13873,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>101</v>
       </c>
@@ -13886,7 +13899,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>102</v>
       </c>
@@ -14328,7 +14341,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>476</v>
       </c>
@@ -14354,7 +14367,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>477</v>
       </c>
@@ -14380,7 +14393,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>478</v>
       </c>
@@ -14406,7 +14419,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>479</v>
       </c>
@@ -14432,7 +14445,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>624</v>
       </c>
@@ -14458,7 +14471,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>625</v>
       </c>
@@ -14484,7 +14497,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>626</v>
       </c>
@@ -14510,7 +14523,7 @@
         <v>38748</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>627</v>
       </c>
@@ -14535,8 +14548,9 @@
       <c r="H376" s="5">
         <v>38748</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K376" s="10"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>34</v>
       </c>
@@ -14562,7 +14576,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>35</v>
       </c>
@@ -14588,7 +14602,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>36</v>
       </c>
@@ -14614,7 +14628,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>37</v>
       </c>
@@ -14640,7 +14654,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>120</v>
       </c>
@@ -14666,7 +14680,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>121</v>
       </c>
@@ -14692,7 +14706,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>122</v>
       </c>
@@ -14718,7 +14732,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>123</v>
       </c>
@@ -15992,7 +16006,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>485</v>
       </c>
@@ -16018,7 +16032,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>486</v>
       </c>
@@ -16044,7 +16058,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>487</v>
       </c>
@@ -16070,7 +16084,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>488</v>
       </c>
@@ -16096,7 +16110,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>489</v>
       </c>
@@ -16122,7 +16136,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>632</v>
       </c>
@@ -16148,7 +16162,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>633</v>
       </c>
@@ -16174,7 +16188,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>634</v>
       </c>
@@ -16200,7 +16214,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>635</v>
       </c>
@@ -16226,7 +16240,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>636</v>
       </c>
@@ -16252,7 +16266,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>637</v>
       </c>
@@ -16277,8 +16291,9 @@
       <c r="H443" s="5">
         <v>39265</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K443" s="10"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>638</v>
       </c>
@@ -16304,7 +16319,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>111</v>
       </c>
@@ -16330,7 +16345,7 @@
         <v>39416</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>112</v>
       </c>
@@ -16356,7 +16371,7 @@
         <v>39416</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>113</v>
       </c>
@@ -16382,7 +16397,7 @@
         <v>39416</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>114</v>
       </c>
@@ -16824,7 +16839,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>497</v>
       </c>
@@ -16850,7 +16865,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>498</v>
       </c>
@@ -16876,7 +16891,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>646</v>
       </c>
@@ -16902,7 +16917,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>647</v>
       </c>
@@ -16928,7 +16943,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>648</v>
       </c>
@@ -16954,7 +16969,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>649</v>
       </c>
@@ -16980,7 +16995,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>650</v>
       </c>
@@ -17006,7 +17021,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>651</v>
       </c>
@@ -17031,8 +17046,9 @@
       <c r="H472" s="5">
         <v>40802</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K472" s="10"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>38</v>
       </c>
@@ -17058,7 +17074,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>39</v>
       </c>
@@ -17084,7 +17100,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>40</v>
       </c>
@@ -17110,7 +17126,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>41</v>
       </c>
@@ -17136,7 +17152,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>245</v>
       </c>
@@ -17162,7 +17178,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>367</v>
       </c>
@@ -17188,7 +17204,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>368</v>
       </c>
@@ -17214,7 +17230,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>369</v>
       </c>
@@ -17240,7 +17256,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>370</v>
       </c>
@@ -17266,7 +17282,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>371</v>
       </c>
@@ -17292,7 +17308,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>505</v>
       </c>
@@ -17318,7 +17334,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>506</v>
       </c>
@@ -17344,7 +17360,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>507</v>
       </c>
@@ -17370,7 +17386,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>508</v>
       </c>
@@ -17396,7 +17412,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>509</v>
       </c>
@@ -17422,7 +17438,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>652</v>
       </c>
@@ -17448,7 +17464,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>653</v>
       </c>
@@ -17474,7 +17490,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>654</v>
       </c>
@@ -17500,7 +17516,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>655</v>
       </c>
@@ -17526,7 +17542,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>656</v>
       </c>
@@ -17552,7 +17568,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>657</v>
       </c>
@@ -17577,8 +17593,9 @@
       <c r="H493" s="5">
         <v>41765</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K493" s="10"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>658</v>
       </c>
@@ -17604,7 +17621,7 @@
         <v>41765</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>42</v>
       </c>
@@ -17630,7 +17647,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>43</v>
       </c>
@@ -18072,7 +18089,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>374</v>
       </c>
@@ -18098,7 +18115,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>375</v>
       </c>
@@ -18124,7 +18141,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>376</v>
       </c>
@@ -18150,7 +18167,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>510</v>
       </c>
@@ -18176,7 +18193,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>511</v>
       </c>
@@ -18202,7 +18219,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>512</v>
       </c>
@@ -18228,7 +18245,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>513</v>
       </c>
@@ -18254,7 +18271,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>514</v>
       </c>
@@ -18280,7 +18297,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>515</v>
       </c>
@@ -18306,7 +18323,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>659</v>
       </c>
@@ -18332,7 +18349,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>660</v>
       </c>
@@ -18358,7 +18375,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>661</v>
       </c>
@@ -18384,7 +18401,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>662</v>
       </c>
@@ -18410,7 +18427,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>663</v>
       </c>
@@ -18436,7 +18453,7 @@
         <v>41869</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>664</v>
       </c>
@@ -18461,8 +18478,9 @@
       <c r="H527" s="5">
         <v>41869</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K527" s="10"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>665</v>
       </c>
@@ -19736,7 +19754,7 @@
         <v>42398</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>670</v>
       </c>
@@ -19762,7 +19780,7 @@
         <v>42398</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>671</v>
       </c>
@@ -19787,8 +19805,9 @@
       <c r="H578" s="5">
         <v>42398</v>
       </c>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K578" s="10"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>135</v>
       </c>
@@ -19814,7 +19833,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>136</v>
       </c>
@@ -19840,7 +19859,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>137</v>
       </c>
@@ -19866,7 +19885,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>138</v>
       </c>
@@ -19892,7 +19911,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>139</v>
       </c>
@@ -19918,7 +19937,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>258</v>
       </c>
@@ -19944,7 +19963,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>259</v>
       </c>
@@ -19970,7 +19989,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>260</v>
       </c>
@@ -19996,7 +20015,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>261</v>
       </c>
@@ -20022,7 +20041,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>262</v>
       </c>
@@ -20048,7 +20067,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>263</v>
       </c>
@@ -20074,7 +20093,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>382</v>
       </c>
@@ -20100,7 +20119,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>383</v>
       </c>
@@ -20126,7 +20145,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>384</v>
       </c>
@@ -20152,7 +20171,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>385</v>
       </c>
@@ -20178,7 +20197,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>386</v>
       </c>
@@ -20204,7 +20223,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>522</v>
       </c>
@@ -20230,7 +20249,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>523</v>
       </c>
@@ -20256,7 +20275,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>524</v>
       </c>
@@ -20282,7 +20301,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>525</v>
       </c>
@@ -20308,7 +20327,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>526</v>
       </c>
@@ -20334,7 +20353,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>527</v>
       </c>
@@ -20360,7 +20379,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>672</v>
       </c>
@@ -20386,7 +20405,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>673</v>
       </c>
@@ -20412,7 +20431,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>674</v>
       </c>
@@ -20438,7 +20457,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>675</v>
       </c>
@@ -20464,7 +20483,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>676</v>
       </c>
@@ -20490,7 +20509,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>677</v>
       </c>
@@ -20515,8 +20534,9 @@
       <c r="H606" s="5">
         <v>42555</v>
       </c>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K606" s="10"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>140</v>
       </c>
@@ -20542,7 +20562,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>141</v>
       </c>
@@ -20984,7 +21004,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>682</v>
       </c>
@@ -21010,7 +21030,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>683</v>
       </c>
@@ -21035,8 +21055,9 @@
       <c r="H626" s="5">
         <v>42711</v>
       </c>
-    </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K626" s="10"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>684</v>
       </c>
@@ -21062,7 +21083,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>50</v>
       </c>
@@ -21088,7 +21109,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>142</v>
       </c>
@@ -21114,7 +21135,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>143</v>
       </c>
@@ -21140,7 +21161,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>144</v>
       </c>
@@ -21166,7 +21187,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>391</v>
       </c>
@@ -21192,7 +21213,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>534</v>
       </c>
@@ -21218,7 +21239,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>535</v>
       </c>
@@ -21244,7 +21265,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>536</v>
       </c>
@@ -21270,7 +21291,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>685</v>
       </c>
@@ -21296,7 +21317,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>686</v>
       </c>
@@ -21322,7 +21343,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>687</v>
       </c>
@@ -21348,7 +21369,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>688</v>
       </c>
@@ -21373,8 +21394,9 @@
       <c r="H639" s="5">
         <v>43014</v>
       </c>
-    </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K639" s="10"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>689</v>
       </c>
@@ -21816,7 +21838,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>394</v>
       </c>
@@ -21842,7 +21864,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>395</v>
       </c>
@@ -21868,7 +21890,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>396</v>
       </c>
@@ -21894,7 +21916,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>537</v>
       </c>
@@ -21920,7 +21942,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>538</v>
       </c>
@@ -21946,7 +21968,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>539</v>
       </c>
@@ -21972,7 +21994,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>540</v>
       </c>
@@ -21998,7 +22020,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>541</v>
       </c>
@@ -22024,7 +22046,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>542</v>
       </c>
@@ -22050,7 +22072,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
         <v>690</v>
       </c>
@@ -22076,7 +22098,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>691</v>
       </c>
@@ -22102,7 +22124,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
         <v>692</v>
       </c>
@@ -22128,7 +22150,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>693</v>
       </c>
@@ -22154,7 +22176,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
         <v>694</v>
       </c>
@@ -22180,7 +22202,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>695</v>
       </c>
@@ -22205,8 +22227,9 @@
       <c r="H671" s="5">
         <v>43432</v>
       </c>
-    </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K671" s="10"/>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>56</v>
       </c>
@@ -22648,7 +22671,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
         <v>399</v>
       </c>
@@ -22674,7 +22697,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
         <v>400</v>
       </c>
@@ -22700,7 +22723,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
         <v>401</v>
       </c>
@@ -22726,7 +22749,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
         <v>543</v>
       </c>
@@ -22752,7 +22775,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
         <v>544</v>
       </c>
@@ -22778,7 +22801,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
         <v>545</v>
       </c>
@@ -22804,7 +22827,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
         <v>546</v>
       </c>
@@ -22830,7 +22853,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
         <v>547</v>
       </c>
@@ -22856,7 +22879,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
         <v>548</v>
       </c>
@@ -22882,7 +22905,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
         <v>696</v>
       </c>
@@ -22908,7 +22931,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>697</v>
       </c>
@@ -22934,7 +22957,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
         <v>698</v>
       </c>
@@ -22960,7 +22983,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
         <v>699</v>
       </c>
@@ -22986,7 +23009,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
         <v>700</v>
       </c>
@@ -23012,7 +23035,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
         <v>701</v>
       </c>
@@ -23037,8 +23060,9 @@
       <c r="H703" s="5">
         <v>43565</v>
       </c>
-    </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K703" s="10"/>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
         <v>702</v>
       </c>
@@ -23065,7 +23089,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{1584E319-6F3D-4A71-9D07-4F19DEBC0307}">
+  <autoFilter ref="A1:H704" xr:uid="{1584E319-6F3D-4A71-9D07-4F19DEBC0307}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H704">
       <sortCondition ref="H1"/>
     </sortState>
